--- a/BugList.xlsx
+++ b/BugList.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5660556A-0800-4388-BBC1-A476C9F66EEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BDF3F83-6CBA-4217-BD32-131780DCDFCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BugID</t>
   </si>
   <si>
-    <t>BugDescription</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>DateDiscovered</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Status Colour Code:</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>BugLoggedBy</t>
+  </si>
+  <si>
+    <t>Bug Description</t>
+  </si>
+  <si>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
@@ -67,13 +88,295 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -349,33 +652,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>"PendingFix"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"InProgress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"InProgress"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>